--- a/BD-TE/4-JEL.xlsx
+++ b/BD-TE/4-JEL.xlsx
@@ -41,12 +41,12 @@
     <t xml:space="preserve">E58</t>
   </si>
   <si>
+    <t xml:space="preserve">E61</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28</t>
   </si>
   <si>
-    <t xml:space="preserve">E61</t>
-  </si>
-  <si>
     <t xml:space="preserve">103/335</t>
   </si>
   <si>
@@ -62,33 +62,39 @@
     <t xml:space="preserve">104/337</t>
   </si>
   <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
     <t xml:space="preserve">D12</t>
   </si>
   <si>
+    <t xml:space="preserve">D91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E21</t>
+  </si>
+  <si>
     <t xml:space="preserve">O54</t>
   </si>
   <si>
-    <t xml:space="preserve">E21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
     <t xml:space="preserve">105/338</t>
   </si>
   <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
     <t xml:space="preserve">G32</t>
   </si>
   <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
     <t xml:space="preserve">106/339</t>
   </si>
   <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
     <t xml:space="preserve">R13</t>
   </si>
   <si>
@@ -101,12 +107,6 @@
     <t xml:space="preserve">F23</t>
   </si>
   <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
     <t xml:space="preserve">107/340</t>
   </si>
   <si>
@@ -122,12 +122,12 @@
     <t xml:space="preserve">108/341</t>
   </si>
   <si>
+    <t xml:space="preserve">C02</t>
+  </si>
+  <si>
     <t xml:space="preserve">G21</t>
   </si>
   <si>
-    <t xml:space="preserve">C02</t>
-  </si>
-  <si>
     <t xml:space="preserve">115/351</t>
   </si>
   <si>
@@ -140,18 +140,18 @@
     <t xml:space="preserve">117/353</t>
   </si>
   <si>
+    <t xml:space="preserve">G15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G38</t>
+  </si>
+  <si>
     <t xml:space="preserve">K22</t>
   </si>
   <si>
-    <t xml:space="preserve">G38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G34</t>
-  </si>
-  <si>
     <t xml:space="preserve">122/358</t>
   </si>
   <si>
@@ -164,24 +164,24 @@
     <t xml:space="preserve">130/366</t>
   </si>
   <si>
+    <t xml:space="preserve">D72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D78</t>
+  </si>
+  <si>
     <t xml:space="preserve">F5</t>
   </si>
   <si>
-    <t xml:space="preserve">D72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D78</t>
-  </si>
-  <si>
     <t xml:space="preserve">131/367</t>
   </si>
   <si>
+    <t xml:space="preserve">A12</t>
+  </si>
+  <si>
     <t xml:space="preserve">D81</t>
   </si>
   <si>
-    <t xml:space="preserve">A12</t>
-  </si>
-  <si>
     <t xml:space="preserve">132/368</t>
   </si>
   <si>
@@ -200,24 +200,24 @@
     <t xml:space="preserve">134/370</t>
   </si>
   <si>
+    <t xml:space="preserve">J24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D24</t>
+  </si>
+  <si>
     <t xml:space="preserve">L25</t>
   </si>
   <si>
-    <t xml:space="preserve">J24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D24</t>
-  </si>
-  <si>
     <t xml:space="preserve">135/371</t>
   </si>
   <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
     <t xml:space="preserve">G13</t>
   </si>
   <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
     <t xml:space="preserve">G17</t>
   </si>
   <si>
@@ -233,42 +233,42 @@
     <t xml:space="preserve">137/373</t>
   </si>
   <si>
+    <t xml:space="preserve">D04</t>
+  </si>
+  <si>
     <t xml:space="preserve">D42</t>
   </si>
   <si>
     <t xml:space="preserve">D43</t>
   </si>
   <si>
-    <t xml:space="preserve">D04</t>
-  </si>
-  <si>
     <t xml:space="preserve">L50</t>
   </si>
   <si>
     <t xml:space="preserve">139/907</t>
   </si>
   <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5</t>
+  </si>
+  <si>
     <t xml:space="preserve">F4</t>
   </si>
   <si>
-    <t xml:space="preserve">E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
     <t xml:space="preserve">140/908</t>
   </si>
   <si>
+    <t xml:space="preserve">H52</t>
+  </si>
+  <si>
     <t xml:space="preserve">I25</t>
   </si>
   <si>
     <t xml:space="preserve">I28</t>
   </si>
   <si>
-    <t xml:space="preserve">H52</t>
-  </si>
-  <si>
     <t xml:space="preserve">141/909</t>
   </si>
   <si>
@@ -281,51 +281,51 @@
     <t xml:space="preserve">142/910</t>
   </si>
   <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C81</t>
+  </si>
+  <si>
     <t xml:space="preserve">D10</t>
   </si>
   <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C81</t>
-  </si>
-  <si>
     <t xml:space="preserve">143/911</t>
   </si>
   <si>
+    <t xml:space="preserve">D23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L66</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q1</t>
   </si>
   <si>
-    <t xml:space="preserve">L66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D23</t>
-  </si>
-  <si>
     <t xml:space="preserve">144/912</t>
   </si>
   <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
     <t xml:space="preserve">J61</t>
   </si>
   <si>
     <t xml:space="preserve">C25</t>
   </si>
   <si>
-    <t xml:space="preserve">R21</t>
-  </si>
-  <si>
     <t xml:space="preserve">145/913</t>
   </si>
   <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E31</t>
+  </si>
+  <si>
     <t xml:space="preserve">B16</t>
   </si>
   <si>
-    <t xml:space="preserve">E31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
     <t xml:space="preserve">148/272</t>
   </si>
   <si>
@@ -335,15 +335,15 @@
     <t xml:space="preserve">161/301</t>
   </si>
   <si>
+    <t xml:space="preserve">H22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H24</t>
+  </si>
+  <si>
     <t xml:space="preserve">H31</t>
   </si>
   <si>
-    <t xml:space="preserve">H24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H22</t>
-  </si>
-  <si>
     <t xml:space="preserve">J22</t>
   </si>
   <si>
@@ -362,12 +362,12 @@
     <t xml:space="preserve">O15</t>
   </si>
   <si>
+    <t xml:space="preserve">D31</t>
+  </si>
+  <si>
     <t xml:space="preserve">D63</t>
   </si>
   <si>
-    <t xml:space="preserve">D31</t>
-  </si>
-  <si>
     <t xml:space="preserve">168/900</t>
   </si>
   <si>
@@ -401,24 +401,24 @@
     <t xml:space="preserve">171/903</t>
   </si>
   <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
     <t xml:space="preserve">B5</t>
   </si>
   <si>
     <t xml:space="preserve">A2</t>
   </si>
   <si>
-    <t xml:space="preserve">B4</t>
-  </si>
-  <si>
     <t xml:space="preserve">176/889</t>
   </si>
   <si>
+    <t xml:space="preserve">D33</t>
+  </si>
+  <si>
     <t xml:space="preserve">D58</t>
   </si>
   <si>
-    <t xml:space="preserve">D33</t>
-  </si>
-  <si>
     <t xml:space="preserve">H3</t>
   </si>
   <si>
@@ -440,21 +440,21 @@
     <t xml:space="preserve">179/892</t>
   </si>
   <si>
+    <t xml:space="preserve">J30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D21</t>
+  </si>
+  <si>
     <t xml:space="preserve">D22</t>
   </si>
   <si>
-    <t xml:space="preserve">D21</t>
-  </si>
-  <si>
     <t xml:space="preserve">E3</t>
   </si>
   <si>
-    <t xml:space="preserve">J31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J30</t>
-  </si>
-  <si>
     <t xml:space="preserve">180/893</t>
   </si>
   <si>
@@ -464,27 +464,27 @@
     <t xml:space="preserve">181/894</t>
   </si>
   <si>
+    <t xml:space="preserve">H21</t>
+  </si>
+  <si>
     <t xml:space="preserve">D13</t>
   </si>
   <si>
-    <t xml:space="preserve">H21</t>
-  </si>
-  <si>
     <t xml:space="preserve">183/881</t>
   </si>
   <si>
+    <t xml:space="preserve">H10</t>
+  </si>
+  <si>
     <t xml:space="preserve">J20</t>
   </si>
   <si>
+    <t xml:space="preserve">J38</t>
+  </si>
+  <si>
     <t xml:space="preserve">J45</t>
   </si>
   <si>
-    <t xml:space="preserve">H10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J38</t>
-  </si>
-  <si>
     <t xml:space="preserve">184/882</t>
   </si>
   <si>
@@ -527,15 +527,15 @@
     <t xml:space="preserve">190/874</t>
   </si>
   <si>
+    <t xml:space="preserve">E60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F31</t>
+  </si>
+  <si>
     <t xml:space="preserve">N16</t>
   </si>
   <si>
-    <t xml:space="preserve">F31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E60</t>
-  </si>
-  <si>
     <t xml:space="preserve">191/875</t>
   </si>
   <si>
@@ -545,12 +545,12 @@
     <t xml:space="preserve">193/877</t>
   </si>
   <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
     <t xml:space="preserve">D9</t>
   </si>
   <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
     <t xml:space="preserve">195/879</t>
   </si>
   <si>
@@ -566,24 +566,24 @@
     <t xml:space="preserve">197/888</t>
   </si>
   <si>
+    <t xml:space="preserve">Q12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q51</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q54</t>
   </si>
   <si>
-    <t xml:space="preserve">Q12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q51</t>
-  </si>
-  <si>
     <t xml:space="preserve">198/878</t>
   </si>
   <si>
+    <t xml:space="preserve">F10</t>
+  </si>
+  <si>
     <t xml:space="preserve">F14</t>
   </si>
   <si>
-    <t xml:space="preserve">F10</t>
-  </si>
-  <si>
     <t xml:space="preserve">200/865</t>
   </si>
   <si>
@@ -593,12 +593,12 @@
     <t xml:space="preserve">201/866</t>
   </si>
   <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
     <t xml:space="preserve">R38</t>
   </si>
   <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
     <t xml:space="preserve">202/867</t>
   </si>
   <si>
@@ -614,21 +614,21 @@
     <t xml:space="preserve">203/868</t>
   </si>
   <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
     <t xml:space="preserve">C24</t>
   </si>
   <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
     <t xml:space="preserve">204/869</t>
   </si>
   <si>
+    <t xml:space="preserve">A11</t>
+  </si>
+  <si>
     <t xml:space="preserve">A20</t>
   </si>
   <si>
-    <t xml:space="preserve">A11</t>
-  </si>
-  <si>
     <t xml:space="preserve">205/870</t>
   </si>
   <si>
@@ -638,12 +638,12 @@
     <t xml:space="preserve">207/854</t>
   </si>
   <si>
+    <t xml:space="preserve">D60</t>
+  </si>
+  <si>
     <t xml:space="preserve">L40</t>
   </si>
   <si>
-    <t xml:space="preserve">D60</t>
-  </si>
-  <si>
     <t xml:space="preserve">208/855</t>
   </si>
   <si>
@@ -656,42 +656,42 @@
     <t xml:space="preserve">210/857</t>
   </si>
   <si>
+    <t xml:space="preserve">E52</t>
+  </si>
+  <si>
     <t xml:space="preserve">E43</t>
   </si>
   <si>
-    <t xml:space="preserve">E52</t>
-  </si>
-  <si>
     <t xml:space="preserve">211/858</t>
   </si>
   <si>
+    <t xml:space="preserve">H23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q53</t>
   </si>
   <si>
-    <t xml:space="preserve">H23</t>
-  </si>
-  <si>
     <t xml:space="preserve">212/859</t>
   </si>
   <si>
+    <t xml:space="preserve">C67</t>
+  </si>
+  <si>
     <t xml:space="preserve">O10</t>
   </si>
   <si>
     <t xml:space="preserve">O14</t>
   </si>
   <si>
-    <t xml:space="preserve">C67</t>
-  </si>
-  <si>
     <t xml:space="preserve">213/861</t>
   </si>
   <si>
+    <t xml:space="preserve">J64</t>
+  </si>
+  <si>
     <t xml:space="preserve">E24</t>
   </si>
   <si>
-    <t xml:space="preserve">J64</t>
-  </si>
-  <si>
     <t xml:space="preserve">214/862</t>
   </si>
   <si>
@@ -740,42 +740,42 @@
     <t xml:space="preserve">235/850</t>
   </si>
   <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
     <t xml:space="preserve">N1</t>
   </si>
   <si>
+    <t xml:space="preserve">O11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O41</t>
+  </si>
+  <si>
     <t xml:space="preserve">O47</t>
   </si>
   <si>
-    <t xml:space="preserve">O11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
     <t xml:space="preserve">236/851</t>
   </si>
   <si>
+    <t xml:space="preserve">R58</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1</t>
   </si>
   <si>
-    <t xml:space="preserve">R58</t>
-  </si>
-  <si>
     <t xml:space="preserve">I3</t>
   </si>
   <si>
     <t xml:space="preserve">237/852</t>
   </si>
   <si>
+    <t xml:space="preserve">H50</t>
+  </si>
+  <si>
     <t xml:space="preserve">J10</t>
   </si>
   <si>
-    <t xml:space="preserve">H50</t>
-  </si>
-  <si>
     <t xml:space="preserve">238/853</t>
   </si>
   <si>
@@ -785,24 +785,24 @@
     <t xml:space="preserve">259/1019</t>
   </si>
   <si>
+    <t xml:space="preserve">L23</t>
+  </si>
+  <si>
     <t xml:space="preserve">L62</t>
   </si>
   <si>
-    <t xml:space="preserve">L23</t>
-  </si>
-  <si>
     <t xml:space="preserve">26/304</t>
   </si>
   <si>
+    <t xml:space="preserve">E6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E65</t>
+  </si>
+  <si>
     <t xml:space="preserve">F30</t>
   </si>
   <si>
-    <t xml:space="preserve">E6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E65</t>
-  </si>
-  <si>
     <t xml:space="preserve">261/615</t>
   </si>
   <si>
@@ -833,15 +833,15 @@
     <t xml:space="preserve">279/1002</t>
   </si>
   <si>
+    <t xml:space="preserve">H0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
     <t xml:space="preserve">H39</t>
   </si>
   <si>
-    <t xml:space="preserve">H0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
     <t xml:space="preserve">29/307</t>
   </si>
   <si>
@@ -854,27 +854,27 @@
     <t xml:space="preserve">30/308</t>
   </si>
   <si>
+    <t xml:space="preserve">F35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H30</t>
+  </si>
+  <si>
     <t xml:space="preserve">O23</t>
   </si>
   <si>
-    <t xml:space="preserve">H30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35</t>
-  </si>
-  <si>
     <t xml:space="preserve">308/670</t>
   </si>
   <si>
+    <t xml:space="preserve">D46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N84</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z11</t>
   </si>
   <si>
-    <t xml:space="preserve">N84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D46</t>
-  </si>
-  <si>
     <t xml:space="preserve">31/310</t>
   </si>
   <si>
@@ -899,15 +899,15 @@
     <t xml:space="preserve">316/1021</t>
   </si>
   <si>
+    <t xml:space="preserve">J81</t>
+  </si>
+  <si>
     <t xml:space="preserve">J82</t>
   </si>
   <si>
     <t xml:space="preserve">J88</t>
   </si>
   <si>
-    <t xml:space="preserve">J81</t>
-  </si>
-  <si>
     <t xml:space="preserve">E23</t>
   </si>
   <si>
@@ -932,36 +932,36 @@
     <t xml:space="preserve">O13</t>
   </si>
   <si>
+    <t xml:space="preserve">H54</t>
+  </si>
+  <si>
     <t xml:space="preserve">C31</t>
   </si>
   <si>
     <t xml:space="preserve">C33</t>
   </si>
   <si>
-    <t xml:space="preserve">H54</t>
-  </si>
-  <si>
     <t xml:space="preserve">349/1006</t>
   </si>
   <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
     <t xml:space="preserve">O3</t>
   </si>
   <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
     <t xml:space="preserve">35/297</t>
   </si>
   <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
     <t xml:space="preserve">D8</t>
   </si>
   <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
     <t xml:space="preserve">355/1042</t>
   </si>
   <si>
@@ -1088,12 +1088,12 @@
     <t xml:space="preserve">383/580</t>
   </si>
   <si>
+    <t xml:space="preserve">I1</t>
+  </si>
+  <si>
     <t xml:space="preserve">O5</t>
   </si>
   <si>
-    <t xml:space="preserve">I1</t>
-  </si>
-  <si>
     <t xml:space="preserve">384/581</t>
   </si>
   <si>
@@ -1118,12 +1118,12 @@
     <t xml:space="preserve">394/593</t>
   </si>
   <si>
+    <t xml:space="preserve">E30</t>
+  </si>
+  <si>
     <t xml:space="preserve">D40</t>
   </si>
   <si>
-    <t xml:space="preserve">E30</t>
-  </si>
-  <si>
     <t xml:space="preserve">396/595</t>
   </si>
   <si>
@@ -1157,12 +1157,12 @@
     <t xml:space="preserve">404/599</t>
   </si>
   <si>
+    <t xml:space="preserve">F18</t>
+  </si>
+  <si>
     <t xml:space="preserve">L10</t>
   </si>
   <si>
-    <t xml:space="preserve">F18</t>
-  </si>
-  <si>
     <t xml:space="preserve">405/600</t>
   </si>
   <si>
@@ -1226,12 +1226,12 @@
     <t xml:space="preserve">417/612</t>
   </si>
   <si>
+    <t xml:space="preserve">F02</t>
+  </si>
+  <si>
     <t xml:space="preserve">N76</t>
   </si>
   <si>
-    <t xml:space="preserve">F02</t>
-  </si>
-  <si>
     <t xml:space="preserve">418/613</t>
   </si>
   <si>
@@ -1286,24 +1286,24 @@
     <t xml:space="preserve">433/658</t>
   </si>
   <si>
+    <t xml:space="preserve">B31</t>
+  </si>
+  <si>
     <t xml:space="preserve">B52</t>
   </si>
   <si>
-    <t xml:space="preserve">B31</t>
-  </si>
-  <si>
     <t xml:space="preserve">434/659</t>
   </si>
   <si>
     <t xml:space="preserve">D61</t>
   </si>
   <si>
+    <t xml:space="preserve">H42</t>
+  </si>
+  <si>
     <t xml:space="preserve">I10</t>
   </si>
   <si>
-    <t xml:space="preserve">H42</t>
-  </si>
-  <si>
     <t xml:space="preserve">435/660</t>
   </si>
   <si>
@@ -1388,12 +1388,12 @@
     <t xml:space="preserve">478/801</t>
   </si>
   <si>
+    <t xml:space="preserve">G22</t>
+  </si>
+  <si>
     <t xml:space="preserve">O16</t>
   </si>
   <si>
-    <t xml:space="preserve">G22</t>
-  </si>
-  <si>
     <t xml:space="preserve">480/630</t>
   </si>
   <si>
@@ -1490,12 +1490,12 @@
     <t xml:space="preserve">499/645</t>
   </si>
   <si>
+    <t xml:space="preserve">K20</t>
+  </si>
+  <si>
     <t xml:space="preserve">K30</t>
   </si>
   <si>
-    <t xml:space="preserve">K20</t>
-  </si>
-  <si>
     <t xml:space="preserve">500/647</t>
   </si>
   <si>
@@ -1505,12 +1505,12 @@
     <t xml:space="preserve">504/650</t>
   </si>
   <si>
+    <t xml:space="preserve">G0</t>
+  </si>
+  <si>
     <t xml:space="preserve">G3</t>
   </si>
   <si>
-    <t xml:space="preserve">G0</t>
-  </si>
-  <si>
     <t xml:space="preserve">505/651</t>
   </si>
   <si>
@@ -1526,24 +1526,24 @@
     <t xml:space="preserve">508/791</t>
   </si>
   <si>
+    <t xml:space="preserve">O44</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q43</t>
   </si>
   <si>
-    <t xml:space="preserve">O44</t>
-  </si>
-  <si>
     <t xml:space="preserve">509/792</t>
   </si>
   <si>
     <t xml:space="preserve">511/795</t>
   </si>
   <si>
+    <t xml:space="preserve">D01</t>
+  </si>
+  <si>
     <t xml:space="preserve">B21</t>
   </si>
   <si>
-    <t xml:space="preserve">D01</t>
-  </si>
-  <si>
     <t xml:space="preserve">521/1041</t>
   </si>
   <si>
@@ -1613,27 +1613,27 @@
     <t xml:space="preserve">549/842</t>
   </si>
   <si>
+    <t xml:space="preserve">I100</t>
+  </si>
+  <si>
     <t xml:space="preserve">J100</t>
   </si>
   <si>
     <t xml:space="preserve">J140</t>
   </si>
   <si>
-    <t xml:space="preserve">I100</t>
-  </si>
-  <si>
     <t xml:space="preserve">552/829</t>
   </si>
   <si>
+    <t xml:space="preserve">011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z13</t>
+  </si>
+  <si>
     <t xml:space="preserve">P14</t>
   </si>
   <si>
-    <t xml:space="preserve">Z13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011</t>
-  </si>
-  <si>
     <t xml:space="preserve">553/831</t>
   </si>
   <si>
@@ -1700,12 +1700,12 @@
     <t xml:space="preserve">D70</t>
   </si>
   <si>
+    <t xml:space="preserve">D71</t>
+  </si>
+  <si>
     <t xml:space="preserve">C00</t>
   </si>
   <si>
-    <t xml:space="preserve">D71</t>
-  </si>
-  <si>
     <t xml:space="preserve">645/952</t>
   </si>
   <si>
@@ -1760,12 +1760,12 @@
     <t xml:space="preserve">659/1011</t>
   </si>
   <si>
+    <t xml:space="preserve">C93</t>
+  </si>
+  <si>
     <t xml:space="preserve">D03</t>
   </si>
   <si>
-    <t xml:space="preserve">C93</t>
-  </si>
-  <si>
     <t xml:space="preserve">660/1012</t>
   </si>
   <si>
@@ -1799,12 +1799,12 @@
     <t xml:space="preserve">70/261</t>
   </si>
   <si>
+    <t xml:space="preserve">L91</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q40</t>
   </si>
   <si>
-    <t xml:space="preserve">L91</t>
-  </si>
-  <si>
     <t xml:space="preserve">71/262</t>
   </si>
   <si>
@@ -1820,24 +1820,24 @@
     <t xml:space="preserve">717/1038</t>
   </si>
   <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
     <t xml:space="preserve">O2</t>
   </si>
   <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
     <t xml:space="preserve">72/263</t>
   </si>
   <si>
+    <t xml:space="preserve">D45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K23</t>
+  </si>
+  <si>
     <t xml:space="preserve">L84</t>
   </si>
   <si>
-    <t xml:space="preserve">D45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K23</t>
-  </si>
-  <si>
     <t xml:space="preserve">73/264</t>
   </si>
   <si>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">78/256</t>
   </si>
   <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
     <t xml:space="preserve">C50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
   </si>
   <si>
     <t xml:space="preserve">80/258</t>
@@ -2008,7 +2008,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2059,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -2103,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2125,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -2136,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -2147,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -2158,7 +2158,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -2169,7 +2169,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -2180,7 +2180,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -2191,7 +2191,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -2213,7 +2213,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
@@ -2224,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
@@ -2235,7 +2235,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -2279,7 +2279,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2290,7 +2290,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
@@ -2323,7 +2323,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>38</v>
@@ -2334,10 +2334,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,10 +2345,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,7 +2356,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>40</v>
@@ -2367,7 +2367,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>41</v>
@@ -2392,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,7 +2411,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>46</v>
@@ -2422,7 +2422,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>47</v>
@@ -2433,7 +2433,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>48</v>
@@ -2444,7 +2444,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>50</v>
@@ -2458,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2466,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>51</v>
@@ -2477,10 +2477,10 @@
         <v>52</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,10 +2488,10 @@
         <v>52</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,7 +2521,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>58</v>
@@ -2532,7 +2532,7 @@
         <v>57</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>59</v>
@@ -2543,7 +2543,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>60</v>
@@ -2557,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2565,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>62</v>
@@ -2576,7 +2576,7 @@
         <v>61</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>63</v>
@@ -2609,10 +2609,10 @@
         <v>65</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,10 +2620,10 @@
         <v>65</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,7 +2631,7 @@
         <v>68</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>69</v>
@@ -2642,7 +2642,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>70</v>
@@ -2653,7 +2653,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>71</v>
@@ -2675,7 +2675,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>74</v>
@@ -2697,7 +2697,7 @@
         <v>73</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>76</v>
@@ -2708,10 +2708,10 @@
         <v>77</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,10 +2719,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,10 +2730,10 @@
         <v>77</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,10 +2741,10 @@
         <v>77</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2774,7 @@
         <v>84</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>85</v>
@@ -2785,10 +2785,10 @@
         <v>84</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,10 +2796,10 @@
         <v>84</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,10 +2807,10 @@
         <v>84</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,7 +2818,7 @@
         <v>88</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
@@ -2829,10 +2829,10 @@
         <v>88</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,10 +2840,10 @@
         <v>88</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,10 +2851,10 @@
         <v>88</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,7 +2862,7 @@
         <v>92</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>93</v>
@@ -2873,7 +2873,7 @@
         <v>92</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>94</v>
@@ -2884,7 +2884,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>95</v>
@@ -2895,7 +2895,7 @@
         <v>96</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>97</v>
@@ -2917,7 +2917,7 @@
         <v>96</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>99</v>
@@ -2950,7 +2950,7 @@
         <v>102</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>103</v>
@@ -2972,7 +2972,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>105</v>
@@ -2994,10 +2994,10 @@
         <v>107</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,10 +3005,10 @@
         <v>107</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +3049,7 @@
         <v>110</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>112</v>
@@ -3060,7 +3060,7 @@
         <v>110</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>113</v>
@@ -3096,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,7 +3192,7 @@
         <v>124</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>125</v>
@@ -3203,7 +3203,7 @@
         <v>124</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>126</v>
@@ -3214,7 +3214,7 @@
         <v>124</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>127</v>
@@ -3225,7 +3225,7 @@
         <v>128</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>129</v>
@@ -3236,7 +3236,7 @@
         <v>128</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>130</v>
@@ -3291,10 +3291,10 @@
         <v>135</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3302,10 @@
         <v>135</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,10 +3313,10 @@
         <v>135</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,7 +3324,7 @@
         <v>137</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>138</v>
@@ -3335,7 +3335,7 @@
         <v>137</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>139</v>
@@ -3346,7 +3346,7 @@
         <v>137</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>140</v>
@@ -3357,7 +3357,7 @@
         <v>137</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>141</v>
@@ -3368,7 +3368,7 @@
         <v>137</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>142</v>
@@ -3401,7 +3401,7 @@
         <v>145</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>146</v>
@@ -3412,10 +3412,10 @@
         <v>145</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,10 +3423,10 @@
         <v>145</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +3434,7 @@
         <v>148</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>149</v>
@@ -3445,7 +3445,7 @@
         <v>148</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>150</v>
@@ -3456,7 +3456,7 @@
         <v>148</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>151</v>
@@ -3467,7 +3467,7 @@
         <v>148</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>152</v>
@@ -3478,10 +3478,10 @@
         <v>153</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,10 +3500,10 @@
         <v>153</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,10 +3511,10 @@
         <v>153</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,10 +3533,10 @@
         <v>158</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,10 +3544,10 @@
         <v>158</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,10 +3555,10 @@
         <v>158</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,10 +3566,10 @@
         <v>160</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,10 +3577,10 @@
         <v>160</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,10 +3632,10 @@
         <v>165</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,10 +3643,10 @@
         <v>165</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,10 +3654,10 @@
         <v>165</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,7 +3665,7 @@
         <v>166</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>167</v>
@@ -3687,10 +3687,10 @@
         <v>166</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,10 +3698,10 @@
         <v>166</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,10 +3731,10 @@
         <v>171</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,10 +3753,10 @@
         <v>171</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,7 +3764,7 @@
         <v>172</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>173</v>
@@ -3775,7 +3775,7 @@
         <v>172</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>174</v>
@@ -3786,10 +3786,10 @@
         <v>175</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,10 +3797,10 @@
         <v>175</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,10 +3808,10 @@
         <v>175</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,10 +3819,10 @@
         <v>177</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,10 +3830,10 @@
         <v>177</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,10 +3841,10 @@
         <v>177</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,10 +3852,10 @@
         <v>177</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,7 +3863,7 @@
         <v>179</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>180</v>
@@ -3874,7 +3874,7 @@
         <v>179</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>181</v>
@@ -3885,7 +3885,7 @@
         <v>179</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>182</v>
@@ -3896,7 +3896,7 @@
         <v>183</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>184</v>
@@ -3907,7 +3907,7 @@
         <v>183</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>185</v>
@@ -3951,10 +3951,10 @@
         <v>188</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,10 +3962,10 @@
         <v>188</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,10 +3973,10 @@
         <v>188</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,7 +3984,7 @@
         <v>188</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>190</v>
@@ -3995,10 +3995,10 @@
         <v>188</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,10 +4039,10 @@
         <v>195</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,10 +4050,10 @@
         <v>195</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,10 +4072,10 @@
         <v>195</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,10 +4083,10 @@
         <v>195</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,7 +4094,7 @@
         <v>198</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>199</v>
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,7 +4116,7 @@
         <v>198</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>200</v>
@@ -4127,10 +4127,10 @@
         <v>201</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,10 +4138,10 @@
         <v>201</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,7 +4152,7 @@
         <v>3</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,10 +4160,10 @@
         <v>203</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,10 +4193,10 @@
         <v>203</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,7 +4204,7 @@
         <v>203</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>205</v>
@@ -4215,10 +4215,10 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,10 +4226,10 @@
         <v>206</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,10 +4248,10 @@
         <v>206</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,10 +4259,10 @@
         <v>207</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,10 +4270,10 @@
         <v>207</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,10 +4281,10 @@
         <v>207</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,10 +4292,10 @@
         <v>209</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,7 +4306,7 @@
         <v>2</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,10 +4314,10 @@
         <v>209</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,10 +4325,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,10 +4336,10 @@
         <v>212</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,10 +4347,10 @@
         <v>212</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,7 +4358,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>214</v>
@@ -4369,7 +4369,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>216</v>
@@ -4380,7 +4380,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>217</v>
@@ -4391,7 +4391,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>218</v>
@@ -4402,7 +4402,7 @@
         <v>219</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>220</v>
@@ -4413,10 +4413,10 @@
         <v>219</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,10 +4424,10 @@
         <v>219</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,10 +4435,10 @@
         <v>222</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4457,10 +4457,10 @@
         <v>222</v>
       </c>
       <c r="B222" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,10 +4468,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4501,10 +4501,10 @@
         <v>227</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,10 +4512,10 @@
         <v>227</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,10 +4523,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,10 +4534,10 @@
         <v>229</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4545,10 +4545,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,10 +4556,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,10 +4567,10 @@
         <v>229</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,10 +4578,10 @@
         <v>229</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,10 +4622,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,10 +4633,10 @@
         <v>235</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,10 +4644,10 @@
         <v>235</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4666,7 +4666,7 @@
         <v>237</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>238</v>
@@ -4677,7 +4677,7 @@
         <v>237</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>239</v>
@@ -4710,7 +4710,7 @@
         <v>237</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>242</v>
@@ -4721,7 +4721,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>244</v>
@@ -4732,7 +4732,7 @@
         <v>243</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>245</v>
@@ -4754,10 +4754,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>248</v>
+        <v>144</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,10 +4765,10 @@
         <v>247</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4776,7 @@
         <v>247</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>249</v>
@@ -4787,10 +4787,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,10 +4798,10 @@
         <v>250</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,10 +4820,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,10 +4831,10 @@
         <v>252</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4842,7 @@
         <v>252</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>253</v>
@@ -4853,10 +4853,10 @@
         <v>252</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,10 +4864,10 @@
         <v>252</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,10 +4875,10 @@
         <v>252</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,7 +4889,7 @@
         <v>6</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,10 +4897,10 @@
         <v>252</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,10 +4908,10 @@
         <v>252</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,7 +4919,7 @@
         <v>255</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>256</v>
@@ -4930,7 +4930,7 @@
         <v>255</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>257</v>
@@ -4941,7 +4941,7 @@
         <v>255</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>258</v>
@@ -4952,10 +4952,10 @@
         <v>259</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,10 +4963,10 @@
         <v>259</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,10 +4974,10 @@
         <v>259</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,10 +4985,10 @@
         <v>259</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,10 +4996,10 @@
         <v>259</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,10 +5007,10 @@
         <v>261</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,7 +5018,7 @@
         <v>261</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>220</v>
@@ -5029,10 +5029,10 @@
         <v>261</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,10 +5040,10 @@
         <v>261</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,10 +5051,10 @@
         <v>262</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,10 +5062,10 @@
         <v>262</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,10 +5084,10 @@
         <v>264</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,10 +5095,10 @@
         <v>264</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5139,7 @@
         <v>268</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>269</v>
@@ -5150,10 +5150,10 @@
         <v>268</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,10 +5161,10 @@
         <v>268</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,7 +5175,7 @@
         <v>4</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,10 +5183,10 @@
         <v>268</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,7 +5194,7 @@
         <v>268</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>271</v>
@@ -5205,10 +5205,10 @@
         <v>272</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,10 +5216,10 @@
         <v>272</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,7 +5249,7 @@
         <v>275</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>276</v>
@@ -5271,7 +5271,7 @@
         <v>275</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>278</v>
@@ -5282,7 +5282,7 @@
         <v>279</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>280</v>
@@ -5304,7 +5304,7 @@
         <v>279</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>282</v>
@@ -5318,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,10 +5337,10 @@
         <v>283</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>284</v>
+        <v>89</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,10 +5348,10 @@
         <v>283</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>91</v>
+        <v>284</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,10 +5359,10 @@
         <v>285</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5370,7 +5370,7 @@
         <v>285</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>286</v>
@@ -5392,10 +5392,10 @@
         <v>285</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,10 +5403,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,10 +5414,10 @@
         <v>285</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,10 +5425,10 @@
         <v>288</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,10 +5436,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,7 +5447,7 @@
         <v>288</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>289</v>
@@ -5458,10 +5458,10 @@
         <v>288</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,10 +5469,10 @@
         <v>290</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,10 +5480,10 @@
         <v>290</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,10 +5491,10 @@
         <v>290</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,10 +5502,10 @@
         <v>290</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,10 +5513,10 @@
         <v>290</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,10 +5524,10 @@
         <v>290</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>292</v>
+        <v>101</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,10 +5535,10 @@
         <v>290</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5546,10 +5546,10 @@
         <v>290</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,10 +5557,10 @@
         <v>290</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,10 +5579,10 @@
         <v>290</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,7 +5601,7 @@
         <v>295</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>12</v>
@@ -5612,10 +5612,10 @@
         <v>295</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,10 +5623,10 @@
         <v>295</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5634,10 +5634,10 @@
         <v>295</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5645,10 +5645,10 @@
         <v>295</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,10 +5656,10 @@
         <v>295</v>
       </c>
       <c r="B331" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,10 +5667,10 @@
         <v>295</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,10 +5678,10 @@
         <v>295</v>
       </c>
       <c r="B333" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,10 +5700,10 @@
         <v>298</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,10 +5722,10 @@
         <v>298</v>
       </c>
       <c r="B337" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,10 +5744,10 @@
         <v>300</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,7 +5758,7 @@
         <v>3</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,10 +5766,10 @@
         <v>300</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5777,10 +5777,10 @@
         <v>300</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,10 +5788,10 @@
         <v>300</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,10 +5799,10 @@
         <v>300</v>
       </c>
       <c r="B344" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,10 +5810,10 @@
         <v>300</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,10 +5821,10 @@
         <v>300</v>
       </c>
       <c r="B346" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5832,7 @@
         <v>300</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>304</v>
@@ -5843,7 +5843,7 @@
         <v>305</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>306</v>
@@ -5854,10 +5854,10 @@
         <v>305</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,10 +5876,10 @@
         <v>305</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,10 +5887,10 @@
         <v>305</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5898,7 +5898,7 @@
         <v>305</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>308</v>
@@ -5909,7 +5909,7 @@
         <v>309</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>310</v>
@@ -5920,7 +5920,7 @@
         <v>309</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>311</v>
@@ -5931,10 +5931,10 @@
         <v>312</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5942,7 +5942,7 @@
         <v>312</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>313</v>
@@ -5953,10 +5953,10 @@
         <v>312</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +5967,7 @@
         <v>4</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,10 +5975,10 @@
         <v>312</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>190</v>
+        <v>313</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5989,7 +5989,7 @@
         <v>6</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,10 +5997,10 @@
         <v>314</v>
       </c>
       <c r="B362" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,10 +6008,10 @@
         <v>314</v>
       </c>
       <c r="B363" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6041,10 +6041,10 @@
         <v>318</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6052,10 +6052,10 @@
         <v>318</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,10 +6063,10 @@
         <v>318</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6074,10 +6074,10 @@
         <v>319</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>4</v>
+        <v>320</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,10 +6085,10 @@
         <v>319</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,10 +6096,10 @@
         <v>319</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>321</v>
+        <v>210</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,10 +6107,10 @@
         <v>319</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,10 +6118,10 @@
         <v>322</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,10 +6129,10 @@
         <v>322</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6140,10 +6140,10 @@
         <v>322</v>
       </c>
       <c r="B375" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6154,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,7 +6165,7 @@
         <v>2</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,10 +6173,10 @@
         <v>325</v>
       </c>
       <c r="B378" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,10 +6184,10 @@
         <v>325</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>327</v>
+        <v>51</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,10 +6195,10 @@
         <v>325</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,10 +6206,10 @@
         <v>325</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6217,10 +6217,10 @@
         <v>325</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,10 +6228,10 @@
         <v>328</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,10 +6250,10 @@
         <v>328</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>30</v>
+        <v>329</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,10 +6261,10 @@
         <v>330</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>331</v>
+        <v>50</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,10 +6272,10 @@
         <v>330</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>51</v>
+        <v>331</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,10 +6283,10 @@
         <v>332</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,10 +6305,10 @@
         <v>332</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,10 +6393,10 @@
         <v>338</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,10 +6404,10 @@
         <v>338</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,10 +6415,10 @@
         <v>338</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>339</v>
+        <v>111</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6426,10 +6426,10 @@
         <v>340</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6437,10 +6437,10 @@
         <v>340</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>341</v>
+        <v>63</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6470,10 +6470,10 @@
         <v>342</v>
       </c>
       <c r="B405" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6481,10 +6481,10 @@
         <v>342</v>
       </c>
       <c r="B406" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>343</v>
+        <v>134</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6558,10 +6558,10 @@
         <v>352</v>
       </c>
       <c r="B413" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,10 +6569,10 @@
         <v>352</v>
       </c>
       <c r="B414" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,10 +6580,10 @@
         <v>352</v>
       </c>
       <c r="B415" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,10 +6591,10 @@
         <v>353</v>
       </c>
       <c r="B416" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6602,10 +6602,10 @@
         <v>353</v>
       </c>
       <c r="B417" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>354</v>
+        <v>35</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6613,7 +6613,7 @@
         <v>353</v>
       </c>
       <c r="B418" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>355</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6638,7 +6638,7 @@
         <v>2</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,10 +6701,10 @@
         <v>361</v>
       </c>
       <c r="B426" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>347</v>
+        <v>18</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6712,10 +6712,10 @@
         <v>361</v>
       </c>
       <c r="B427" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>19</v>
+        <v>347</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,10 +6723,10 @@
         <v>362</v>
       </c>
       <c r="B428" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>184</v>
+        <v>320</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6734,10 +6734,10 @@
         <v>362</v>
       </c>
       <c r="B429" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,10 +6745,10 @@
         <v>362</v>
       </c>
       <c r="B430" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>321</v>
+        <v>136</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6756,10 +6756,10 @@
         <v>362</v>
       </c>
       <c r="B431" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,7 +6767,7 @@
         <v>363</v>
       </c>
       <c r="B432" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>364</v>
@@ -6778,7 +6778,7 @@
         <v>363</v>
       </c>
       <c r="B433" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>365</v>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6847,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6866,10 +6866,10 @@
         <v>370</v>
       </c>
       <c r="B441" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6880,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6888,10 +6888,10 @@
         <v>370</v>
       </c>
       <c r="B443" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,7 +6899,7 @@
         <v>370</v>
       </c>
       <c r="B444" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>136</v>
@@ -6910,10 +6910,10 @@
         <v>370</v>
       </c>
       <c r="B445" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,10 +6921,10 @@
         <v>371</v>
       </c>
       <c r="B446" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6932,10 +6932,10 @@
         <v>371</v>
       </c>
       <c r="B447" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>372</v>
+        <v>56</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,10 +6943,10 @@
         <v>371</v>
       </c>
       <c r="B448" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,10 +6954,10 @@
         <v>371</v>
       </c>
       <c r="B449" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6976,10 +6976,10 @@
         <v>373</v>
       </c>
       <c r="B451" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,10 +6987,10 @@
         <v>373</v>
       </c>
       <c r="B452" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,10 +6998,10 @@
         <v>374</v>
       </c>
       <c r="B453" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7012,7 +7012,7 @@
         <v>2</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7020,10 +7020,10 @@
         <v>374</v>
       </c>
       <c r="B455" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,7 +7031,7 @@
         <v>376</v>
       </c>
       <c r="B456" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>377</v>
@@ -7042,7 +7042,7 @@
         <v>376</v>
       </c>
       <c r="B457" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>378</v>
@@ -7064,10 +7064,10 @@
         <v>379</v>
       </c>
       <c r="B459" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7075,10 +7075,10 @@
         <v>379</v>
       </c>
       <c r="B460" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7086,10 +7086,10 @@
         <v>379</v>
       </c>
       <c r="B461" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7097,10 +7097,10 @@
         <v>379</v>
       </c>
       <c r="B462" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,10 +7141,10 @@
         <v>381</v>
       </c>
       <c r="B466" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>382</v>
+        <v>93</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7152,10 +7152,10 @@
         <v>381</v>
       </c>
       <c r="B467" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>95</v>
+        <v>382</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,10 +7174,10 @@
         <v>383</v>
       </c>
       <c r="B469" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>9</v>
+        <v>384</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7185,10 +7185,10 @@
         <v>383</v>
       </c>
       <c r="B470" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>384</v>
+        <v>9</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,10 +7207,10 @@
         <v>385</v>
       </c>
       <c r="B472" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7218,10 +7218,10 @@
         <v>385</v>
       </c>
       <c r="B473" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,10 +7229,10 @@
         <v>386</v>
       </c>
       <c r="B474" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7240,10 +7240,10 @@
         <v>386</v>
       </c>
       <c r="B475" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,10 +7251,10 @@
         <v>388</v>
       </c>
       <c r="B476" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>389</v>
+        <v>240</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7262,10 +7262,10 @@
         <v>388</v>
       </c>
       <c r="B477" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>13</v>
+        <v>389</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,10 +7273,10 @@
         <v>388</v>
       </c>
       <c r="B478" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7284,10 +7284,10 @@
         <v>390</v>
       </c>
       <c r="B479" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>8</v>
+        <v>364</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7295,10 +7295,10 @@
         <v>390</v>
       </c>
       <c r="B480" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7306,10 +7306,10 @@
         <v>390</v>
       </c>
       <c r="B481" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>365</v>
+        <v>28</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7350,10 +7350,10 @@
         <v>395</v>
       </c>
       <c r="B485" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>396</v>
+        <v>122</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7361,10 +7361,10 @@
         <v>395</v>
       </c>
       <c r="B486" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>56</v>
+        <v>396</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7372,10 +7372,10 @@
         <v>395</v>
       </c>
       <c r="B487" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,10 +7383,10 @@
         <v>397</v>
       </c>
       <c r="B488" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>260</v>
+        <v>30</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7394,10 +7394,10 @@
         <v>397</v>
       </c>
       <c r="B489" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7416,10 +7416,10 @@
         <v>397</v>
       </c>
       <c r="B491" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7427,10 +7427,10 @@
         <v>399</v>
       </c>
       <c r="B492" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>167</v>
+        <v>400</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,10 +7438,10 @@
         <v>399</v>
       </c>
       <c r="B493" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>400</v>
+        <v>169</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7449,10 +7449,10 @@
         <v>399</v>
       </c>
       <c r="B494" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7460,10 +7460,10 @@
         <v>399</v>
       </c>
       <c r="B495" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>401</v>
+        <v>218</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,10 +7471,10 @@
         <v>402</v>
       </c>
       <c r="B496" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,10 +7493,10 @@
         <v>402</v>
       </c>
       <c r="B498" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,10 +7504,10 @@
         <v>404</v>
       </c>
       <c r="B499" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7526,10 +7526,10 @@
         <v>404</v>
       </c>
       <c r="B501" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,10 +7537,10 @@
         <v>405</v>
       </c>
       <c r="B502" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7559,10 +7559,10 @@
         <v>405</v>
       </c>
       <c r="B504" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7584,7 +7584,7 @@
         <v>2</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7636,10 +7636,10 @@
         <v>413</v>
       </c>
       <c r="B511" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>414</v>
+        <v>297</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,10 +7647,10 @@
         <v>413</v>
       </c>
       <c r="B512" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7658,10 +7658,10 @@
         <v>413</v>
       </c>
       <c r="B513" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7680,10 +7680,10 @@
         <v>417</v>
       </c>
       <c r="B515" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7691,10 +7691,10 @@
         <v>417</v>
       </c>
       <c r="B516" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>418</v>
+        <v>12</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7702,10 +7702,10 @@
         <v>417</v>
       </c>
       <c r="B517" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>224</v>
+        <v>392</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,10 +7713,10 @@
         <v>417</v>
       </c>
       <c r="B518" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7724,10 +7724,10 @@
         <v>417</v>
       </c>
       <c r="B519" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,7 +7735,7 @@
         <v>419</v>
       </c>
       <c r="B520" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>420</v>
@@ -7746,10 +7746,10 @@
         <v>419</v>
       </c>
       <c r="B521" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>216</v>
+        <v>421</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7757,10 +7757,10 @@
         <v>419</v>
       </c>
       <c r="B522" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>421</v>
+        <v>217</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7782,7 +7782,7 @@
         <v>2</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,7 +7790,7 @@
         <v>422</v>
       </c>
       <c r="B525" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>424</v>
@@ -7801,7 +7801,7 @@
         <v>422</v>
       </c>
       <c r="B526" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>425</v>
@@ -7812,10 +7812,10 @@
         <v>426</v>
       </c>
       <c r="B527" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7823,10 +7823,10 @@
         <v>426</v>
       </c>
       <c r="B528" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,10 +7834,10 @@
         <v>426</v>
       </c>
       <c r="B529" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7845,10 +7845,10 @@
         <v>426</v>
       </c>
       <c r="B530" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7856,10 +7856,10 @@
         <v>427</v>
       </c>
       <c r="B531" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,10 +7867,10 @@
         <v>427</v>
       </c>
       <c r="B532" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7878,10 +7878,10 @@
         <v>427</v>
       </c>
       <c r="B533" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7900,10 +7900,10 @@
         <v>428</v>
       </c>
       <c r="B535" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>430</v>
+        <v>30</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7911,10 +7911,10 @@
         <v>428</v>
       </c>
       <c r="B536" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>30</v>
+        <v>430</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7922,10 +7922,10 @@
         <v>428</v>
       </c>
       <c r="B537" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>98</v>
+        <v>364</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,10 +7933,10 @@
         <v>428</v>
       </c>
       <c r="B538" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7944,10 +7944,10 @@
         <v>428</v>
       </c>
       <c r="B539" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>365</v>
+        <v>101</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7955,10 +7955,10 @@
         <v>431</v>
       </c>
       <c r="B540" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7969,7 +7969,7 @@
         <v>2</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7977,10 +7977,10 @@
         <v>431</v>
       </c>
       <c r="B542" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,10 +7988,10 @@
         <v>432</v>
       </c>
       <c r="B543" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7999,10 +7999,10 @@
         <v>432</v>
       </c>
       <c r="B544" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>433</v>
+        <v>130</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8010,10 +8010,10 @@
         <v>432</v>
       </c>
       <c r="B545" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>271</v>
+        <v>433</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8032,10 +8032,10 @@
         <v>436</v>
       </c>
       <c r="B547" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8043,10 +8043,10 @@
         <v>436</v>
       </c>
       <c r="B548" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8054,10 +8054,10 @@
         <v>437</v>
       </c>
       <c r="B549" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>341</v>
+        <v>210</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8065,10 +8065,10 @@
         <v>437</v>
       </c>
       <c r="B550" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>438</v>
+        <v>256</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8076,10 +8076,10 @@
         <v>437</v>
       </c>
       <c r="B551" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>257</v>
+        <v>438</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8087,32 +8087,32 @@
         <v>437</v>
       </c>
       <c r="B552" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="2" t="s">
+      <c r="A553" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B553" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>139</v>
+      <c r="B553" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="0" t="s">
+      <c r="A554" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B554" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>122</v>
+      <c r="B554" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,10 +8120,10 @@
         <v>439</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>440</v>
+        <v>140</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8164,10 +8164,10 @@
         <v>444</v>
       </c>
       <c r="B559" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>134</v>
+        <v>445</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,10 +8175,10 @@
         <v>444</v>
       </c>
       <c r="B560" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>445</v>
+        <v>134</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8186,10 +8186,10 @@
         <v>446</v>
       </c>
       <c r="B561" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8197,10 +8197,10 @@
         <v>446</v>
       </c>
       <c r="B562" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8208,10 +8208,10 @@
         <v>446</v>
       </c>
       <c r="B563" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8263,10 +8263,10 @@
         <v>448</v>
       </c>
       <c r="B568" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8274,10 +8274,10 @@
         <v>448</v>
       </c>
       <c r="B569" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8285,10 +8285,10 @@
         <v>450</v>
       </c>
       <c r="B570" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8296,10 +8296,10 @@
         <v>450</v>
       </c>
       <c r="B571" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8307,10 +8307,10 @@
         <v>451</v>
       </c>
       <c r="B572" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8321,7 +8321,7 @@
         <v>2</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8329,10 +8329,10 @@
         <v>451</v>
       </c>
       <c r="B574" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8340,10 +8340,10 @@
         <v>452</v>
       </c>
       <c r="B575" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8351,10 +8351,10 @@
         <v>452</v>
       </c>
       <c r="B576" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,10 +8362,10 @@
         <v>453</v>
       </c>
       <c r="B577" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>454</v>
+        <v>365</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8373,10 +8373,10 @@
         <v>453</v>
       </c>
       <c r="B578" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>159</v>
+        <v>343</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8384,10 +8384,10 @@
         <v>453</v>
       </c>
       <c r="B579" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>455</v>
+        <v>159</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8395,10 +8395,10 @@
         <v>453</v>
       </c>
       <c r="B580" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>364</v>
+        <v>454</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8417,10 +8417,10 @@
         <v>453</v>
       </c>
       <c r="B582" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>343</v>
+        <v>455</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8461,10 +8461,10 @@
         <v>458</v>
       </c>
       <c r="B586" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>32</v>
+        <v>459</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8472,10 +8472,10 @@
         <v>458</v>
       </c>
       <c r="B587" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8483,10 +8483,10 @@
         <v>458</v>
       </c>
       <c r="B588" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8494,10 +8494,10 @@
         <v>458</v>
       </c>
       <c r="B589" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>459</v>
+        <v>33</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8527,10 +8527,10 @@
         <v>460</v>
       </c>
       <c r="B592" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>239</v>
+        <v>461</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8538,10 +8538,10 @@
         <v>460</v>
       </c>
       <c r="B593" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>461</v>
+        <v>242</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8563,7 +8563,7 @@
         <v>2</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8582,10 +8582,10 @@
         <v>465</v>
       </c>
       <c r="B597" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8593,10 +8593,10 @@
         <v>465</v>
       </c>
       <c r="B598" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8629,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8640,7 +8640,7 @@
         <v>2</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8673,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8684,7 +8684,7 @@
         <v>1</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8692,10 +8692,10 @@
         <v>473</v>
       </c>
       <c r="B607" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8714,10 +8714,10 @@
         <v>473</v>
       </c>
       <c r="B609" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>240</v>
+        <v>474</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8725,10 +8725,10 @@
         <v>475</v>
       </c>
       <c r="B610" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>59</v>
+        <v>476</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8736,10 +8736,10 @@
         <v>475</v>
       </c>
       <c r="B611" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8747,10 +8747,10 @@
         <v>475</v>
       </c>
       <c r="B612" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>477</v>
+        <v>58</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8761,7 +8761,7 @@
         <v>4</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8769,10 +8769,10 @@
         <v>478</v>
       </c>
       <c r="B614" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8780,10 +8780,10 @@
         <v>478</v>
       </c>
       <c r="B615" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>454</v>
+        <v>33</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8791,10 +8791,10 @@
         <v>478</v>
       </c>
       <c r="B616" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>303</v>
+        <v>455</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8824,10 +8824,10 @@
         <v>482</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,10 +8835,10 @@
         <v>482</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8846,10 +8846,10 @@
         <v>482</v>
       </c>
       <c r="B621" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8857,10 +8857,10 @@
         <v>482</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8868,10 +8868,10 @@
         <v>483</v>
       </c>
       <c r="B623" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>484</v>
+        <v>13</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8879,10 +8879,10 @@
         <v>483</v>
       </c>
       <c r="B624" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8901,10 +8901,10 @@
         <v>483</v>
       </c>
       <c r="B626" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8912,10 +8912,10 @@
         <v>483</v>
       </c>
       <c r="B627" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>54</v>
+        <v>484</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8923,10 +8923,10 @@
         <v>485</v>
       </c>
       <c r="B628" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8934,10 +8934,10 @@
         <v>485</v>
       </c>
       <c r="B629" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8956,10 +8956,10 @@
         <v>487</v>
       </c>
       <c r="B631" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8967,10 +8967,10 @@
         <v>487</v>
       </c>
       <c r="B632" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>178</v>
+        <v>489</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8978,10 +8978,10 @@
         <v>487</v>
       </c>
       <c r="B633" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>488</v>
+        <v>323</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8989,10 +8989,10 @@
         <v>487</v>
       </c>
       <c r="B634" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9000,10 +9000,10 @@
         <v>487</v>
       </c>
       <c r="B635" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>323</v>
+        <v>178</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9011,10 +9011,10 @@
         <v>490</v>
       </c>
       <c r="B636" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9033,10 +9033,10 @@
         <v>490</v>
       </c>
       <c r="B638" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9055,10 +9055,10 @@
         <v>492</v>
       </c>
       <c r="B640" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9069,7 +9069,7 @@
         <v>2</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9077,10 +9077,10 @@
         <v>492</v>
       </c>
       <c r="B642" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9121,10 +9121,10 @@
         <v>497</v>
       </c>
       <c r="B646" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9143,10 +9143,10 @@
         <v>497</v>
       </c>
       <c r="B648" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9154,7 +9154,7 @@
         <v>499</v>
       </c>
       <c r="B649" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>500</v>
@@ -9165,7 +9165,7 @@
         <v>499</v>
       </c>
       <c r="B650" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>501</v>
@@ -9176,10 +9176,10 @@
         <v>502</v>
       </c>
       <c r="B651" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>313</v>
+        <v>189</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9187,10 +9187,10 @@
         <v>502</v>
       </c>
       <c r="B652" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9198,10 +9198,10 @@
         <v>502</v>
       </c>
       <c r="B653" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>54</v>
+        <v>313</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9209,7 +9209,7 @@
         <v>503</v>
       </c>
       <c r="B654" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>504</v>
@@ -9220,7 +9220,7 @@
         <v>503</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>505</v>
@@ -9231,10 +9231,10 @@
         <v>506</v>
       </c>
       <c r="B656" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>507</v>
+        <v>187</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9242,7 +9242,7 @@
         <v>506</v>
       </c>
       <c r="B657" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>507</v>
@@ -9253,10 +9253,10 @@
         <v>506</v>
       </c>
       <c r="B658" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>187</v>
+        <v>508</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9275,10 +9275,10 @@
         <v>506</v>
       </c>
       <c r="B660" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,10 +9297,10 @@
         <v>509</v>
       </c>
       <c r="B662" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>510</v>
+        <v>331</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9308,7 +9308,7 @@
         <v>509</v>
       </c>
       <c r="B663" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>510</v>
@@ -9330,10 +9330,10 @@
         <v>509</v>
       </c>
       <c r="B665" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>511</v>
+        <v>192</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9341,10 +9341,10 @@
         <v>509</v>
       </c>
       <c r="B666" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9352,10 +9352,10 @@
         <v>509</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9363,10 +9363,10 @@
         <v>509</v>
       </c>
       <c r="B668" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9374,10 +9374,10 @@
         <v>509</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>13</v>
+        <v>511</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9385,10 +9385,10 @@
         <v>509</v>
       </c>
       <c r="B670" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9396,10 +9396,10 @@
         <v>509</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9418,10 +9418,10 @@
         <v>512</v>
       </c>
       <c r="B673" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9429,10 +9429,10 @@
         <v>512</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9462,10 +9462,10 @@
         <v>514</v>
       </c>
       <c r="B677" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>396</v>
+        <v>515</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9473,10 +9473,10 @@
         <v>514</v>
       </c>
       <c r="B678" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>515</v>
+        <v>122</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9484,10 +9484,10 @@
         <v>514</v>
       </c>
       <c r="B679" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>122</v>
+        <v>396</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9495,10 +9495,10 @@
         <v>516</v>
       </c>
       <c r="B680" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>111</v>
+        <v>517</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9509,7 +9509,7 @@
         <v>2</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9517,10 +9517,10 @@
         <v>516</v>
       </c>
       <c r="B682" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>517</v>
+        <v>58</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9528,10 +9528,10 @@
         <v>516</v>
       </c>
       <c r="B683" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9539,10 +9539,10 @@
         <v>516</v>
       </c>
       <c r="B684" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9561,10 +9561,10 @@
         <v>519</v>
       </c>
       <c r="B686" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9572,10 +9572,10 @@
         <v>519</v>
       </c>
       <c r="B687" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>86</v>
+        <v>520</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9583,10 +9583,10 @@
         <v>519</v>
       </c>
       <c r="B688" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9597,7 +9597,7 @@
         <v>4</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9605,7 +9605,7 @@
         <v>519</v>
       </c>
       <c r="B690" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>520</v>
@@ -9616,10 +9616,10 @@
         <v>519</v>
       </c>
       <c r="B691" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>520</v>
+        <v>85</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9638,10 +9638,10 @@
         <v>521</v>
       </c>
       <c r="B693" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>389</v>
+        <v>242</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9652,7 +9652,7 @@
         <v>3</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9660,10 +9660,10 @@
         <v>521</v>
       </c>
       <c r="B695" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9671,10 +9671,10 @@
         <v>521</v>
       </c>
       <c r="B696" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>239</v>
+        <v>384</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9682,10 +9682,10 @@
         <v>521</v>
       </c>
       <c r="B697" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>239</v>
+        <v>389</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9693,10 +9693,10 @@
         <v>521</v>
       </c>
       <c r="B698" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9704,10 +9704,10 @@
         <v>521</v>
       </c>
       <c r="B699" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9715,10 +9715,10 @@
         <v>521</v>
       </c>
       <c r="B700" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>384</v>
+        <v>185</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9737,10 +9737,10 @@
         <v>522</v>
       </c>
       <c r="B702" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9748,10 +9748,10 @@
         <v>522</v>
       </c>
       <c r="B703" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9803,10 +9803,10 @@
         <v>525</v>
       </c>
       <c r="B708" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9814,10 +9814,10 @@
         <v>525</v>
       </c>
       <c r="B709" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9828,7 +9828,7 @@
         <v>3</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9847,10 +9847,10 @@
         <v>527</v>
       </c>
       <c r="B712" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>202</v>
+        <v>493</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9858,10 +9858,10 @@
         <v>527</v>
       </c>
       <c r="B713" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>494</v>
+        <v>202</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9869,31 +9869,31 @@
         <v>528</v>
       </c>
       <c r="B714" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="2" t="s">
+      <c r="A715" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="B715" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C715" s="3" t="s">
+      <c r="B715" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C715" s="1" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="0" t="s">
+      <c r="A716" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B716" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C716" s="1" t="s">
+      <c r="B716" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C716" s="3" t="s">
         <v>531</v>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
         <v>532</v>
       </c>
       <c r="B717" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C717" s="3" t="s">
         <v>533</v>
@@ -9924,7 +9924,7 @@
         <v>532</v>
       </c>
       <c r="B719" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C719" s="3" t="s">
         <v>535</v>
@@ -9946,10 +9946,10 @@
         <v>536</v>
       </c>
       <c r="B721" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>30</v>
+        <v>537</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9957,10 +9957,10 @@
         <v>536</v>
       </c>
       <c r="B722" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>537</v>
+        <v>30</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9968,10 +9968,10 @@
         <v>538</v>
       </c>
       <c r="B723" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9979,10 +9979,10 @@
         <v>538</v>
       </c>
       <c r="B724" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9990,10 +9990,10 @@
         <v>538</v>
       </c>
       <c r="B725" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10008,25 +10008,25 @@
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="0" t="s">
+      <c r="A727" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B727" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C727" s="1" t="s">
-        <v>13</v>
+      <c r="B727" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="2" t="s">
+      <c r="A728" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="B728" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C728" s="3" t="s">
-        <v>141</v>
+      <c r="B728" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10037,7 +10037,7 @@
         <v>3</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10045,10 +10045,10 @@
         <v>541</v>
       </c>
       <c r="B730" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10067,10 +10067,10 @@
         <v>541</v>
       </c>
       <c r="B732" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>13</v>
+        <v>542</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10078,10 +10078,10 @@
         <v>541</v>
       </c>
       <c r="B733" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>542</v>
+        <v>16</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10089,10 +10089,10 @@
         <v>541</v>
       </c>
       <c r="B734" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10100,10 +10100,10 @@
         <v>543</v>
       </c>
       <c r="B735" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10122,10 +10122,10 @@
         <v>543</v>
       </c>
       <c r="B737" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,10 +10133,10 @@
         <v>544</v>
       </c>
       <c r="B738" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>496</v>
+        <v>71</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10144,10 +10144,10 @@
         <v>544</v>
       </c>
       <c r="B739" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>496</v>
+        <v>213</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10155,10 +10155,10 @@
         <v>544</v>
       </c>
       <c r="B740" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>545</v>
+        <v>122</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10166,7 +10166,7 @@
         <v>544</v>
       </c>
       <c r="B741" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>545</v>
@@ -10177,10 +10177,10 @@
         <v>544</v>
       </c>
       <c r="B742" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>70</v>
+        <v>496</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10191,7 +10191,7 @@
         <v>6</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10199,10 +10199,10 @@
         <v>544</v>
       </c>
       <c r="B744" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10221,10 +10221,10 @@
         <v>544</v>
       </c>
       <c r="B746" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>214</v>
+        <v>545</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10232,10 +10232,10 @@
         <v>544</v>
       </c>
       <c r="B747" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>214</v>
+        <v>496</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10254,10 +10254,10 @@
         <v>547</v>
       </c>
       <c r="B749" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>4</v>
+        <v>548</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10265,10 +10265,10 @@
         <v>547</v>
       </c>
       <c r="B750" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10276,10 +10276,10 @@
         <v>547</v>
       </c>
       <c r="B751" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>548</v>
+        <v>168</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10378,7 +10378,7 @@
         <v>1</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10389,7 +10389,7 @@
         <v>2</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10408,10 +10408,10 @@
         <v>556</v>
       </c>
       <c r="B763" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>112</v>
+        <v>558</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10422,7 +10422,7 @@
         <v>3</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10430,10 +10430,10 @@
         <v>556</v>
       </c>
       <c r="B765" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>559</v>
+        <v>113</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10452,7 +10452,7 @@
         <v>561</v>
       </c>
       <c r="B767" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>112</v>
@@ -10474,7 +10474,7 @@
         <v>561</v>
       </c>
       <c r="B769" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>113</v>
@@ -10488,7 +10488,7 @@
         <v>4</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10540,10 +10540,10 @@
         <v>568</v>
       </c>
       <c r="B775" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>48</v>
+        <v>558</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10551,10 +10551,10 @@
         <v>568</v>
       </c>
       <c r="B776" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>559</v>
+        <v>47</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10576,7 +10576,7 @@
         <v>2</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10598,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10650,10 +10650,10 @@
         <v>577</v>
       </c>
       <c r="B785" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>347</v>
+        <v>578</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10661,10 +10661,10 @@
         <v>577</v>
       </c>
       <c r="B786" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>347</v>
+        <v>579</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10672,10 +10672,10 @@
         <v>577</v>
       </c>
       <c r="B787" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>578</v>
+        <v>347</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10683,10 +10683,10 @@
         <v>577</v>
       </c>
       <c r="B788" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>578</v>
+        <v>192</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10694,10 +10694,10 @@
         <v>577</v>
       </c>
       <c r="B789" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10705,10 +10705,10 @@
         <v>577</v>
       </c>
       <c r="B790" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>192</v>
+        <v>578</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10716,10 +10716,10 @@
         <v>577</v>
       </c>
       <c r="B791" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>13</v>
+        <v>579</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10727,10 +10727,10 @@
         <v>577</v>
       </c>
       <c r="B792" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>13</v>
+        <v>347</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10738,10 +10738,10 @@
         <v>577</v>
       </c>
       <c r="B793" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>579</v>
+        <v>192</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10749,10 +10749,10 @@
         <v>577</v>
       </c>
       <c r="B794" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>579</v>
+        <v>16</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10771,10 +10771,10 @@
         <v>580</v>
       </c>
       <c r="B796" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10793,10 +10793,10 @@
         <v>580</v>
       </c>
       <c r="B798" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10804,7 +10804,7 @@
         <v>580</v>
       </c>
       <c r="B799" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>406</v>
@@ -10815,10 +10815,10 @@
         <v>580</v>
       </c>
       <c r="B800" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>406</v>
+        <v>108</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10826,10 +10826,10 @@
         <v>581</v>
       </c>
       <c r="B801" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>144</v>
+        <v>582</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10837,10 +10837,10 @@
         <v>581</v>
       </c>
       <c r="B802" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10848,10 +10848,10 @@
         <v>581</v>
       </c>
       <c r="B803" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>582</v>
+        <v>144</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10870,7 +10870,7 @@
         <v>581</v>
       </c>
       <c r="B805" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>384</v>
@@ -10881,10 +10881,10 @@
         <v>581</v>
       </c>
       <c r="B806" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>384</v>
+        <v>144</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10892,10 +10892,10 @@
         <v>583</v>
       </c>
       <c r="B807" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>520</v>
+        <v>139</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10903,7 +10903,7 @@
         <v>583</v>
       </c>
       <c r="B808" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>520</v>
@@ -10914,10 +10914,10 @@
         <v>583</v>
       </c>
       <c r="B809" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10925,10 +10925,10 @@
         <v>583</v>
       </c>
       <c r="B810" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>141</v>
+        <v>520</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,10 +10947,10 @@
         <v>584</v>
       </c>
       <c r="B812" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>418</v>
+        <v>238</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10958,10 +10958,10 @@
         <v>584</v>
       </c>
       <c r="B813" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10969,10 +10969,10 @@
         <v>584</v>
       </c>
       <c r="B814" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10980,10 +10980,10 @@
         <v>584</v>
       </c>
       <c r="B815" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>98</v>
+        <v>418</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10991,10 +10991,10 @@
         <v>584</v>
       </c>
       <c r="B816" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11002,10 +11002,10 @@
         <v>584</v>
       </c>
       <c r="B817" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11013,10 +11013,10 @@
         <v>584</v>
       </c>
       <c r="B818" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11024,10 +11024,10 @@
         <v>585</v>
       </c>
       <c r="B819" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11035,7 +11035,7 @@
         <v>585</v>
       </c>
       <c r="B820" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>236</v>
@@ -11046,7 +11046,7 @@
         <v>585</v>
       </c>
       <c r="B821" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>313</v>
@@ -11057,10 +11057,10 @@
         <v>585</v>
       </c>
       <c r="B822" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11068,7 +11068,7 @@
         <v>586</v>
       </c>
       <c r="B823" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>58</v>
@@ -11079,10 +11079,10 @@
         <v>586</v>
       </c>
       <c r="B824" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11090,10 +11090,10 @@
         <v>586</v>
       </c>
       <c r="B825" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11101,10 +11101,10 @@
         <v>586</v>
       </c>
       <c r="B826" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11112,10 +11112,10 @@
         <v>586</v>
       </c>
       <c r="B827" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11126,7 +11126,7 @@
         <v>6</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11134,10 +11134,10 @@
         <v>586</v>
       </c>
       <c r="B829" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11148,7 +11148,7 @@
         <v>8</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11159,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11167,10 +11167,10 @@
         <v>587</v>
       </c>
       <c r="B832" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11178,10 +11178,10 @@
         <v>587</v>
       </c>
       <c r="B833" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11189,10 +11189,10 @@
         <v>588</v>
       </c>
       <c r="B834" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11200,10 +11200,10 @@
         <v>588</v>
       </c>
       <c r="B835" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11211,10 +11211,10 @@
         <v>588</v>
       </c>
       <c r="B836" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>136</v>
+        <v>589</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11233,10 +11233,10 @@
         <v>588</v>
       </c>
       <c r="B838" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>589</v>
+        <v>185</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11266,7 +11266,7 @@
         <v>590</v>
       </c>
       <c r="B841" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>591</v>
@@ -11277,7 +11277,7 @@
         <v>590</v>
       </c>
       <c r="B842" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>592</v>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11321,10 +11321,10 @@
         <v>595</v>
       </c>
       <c r="B846" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>406</v>
+        <v>36</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11332,10 +11332,10 @@
         <v>595</v>
       </c>
       <c r="B847" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11343,10 +11343,10 @@
         <v>595</v>
       </c>
       <c r="B848" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>36</v>
+        <v>596</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11354,10 +11354,10 @@
         <v>595</v>
       </c>
       <c r="B849" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>596</v>
+        <v>406</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11365,10 +11365,10 @@
         <v>595</v>
       </c>
       <c r="B850" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>596</v>
+        <v>36</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11376,7 +11376,7 @@
         <v>595</v>
       </c>
       <c r="B851" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>54</v>
@@ -11387,10 +11387,10 @@
         <v>595</v>
       </c>
       <c r="B852" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>54</v>
+        <v>596</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11398,7 +11398,7 @@
         <v>597</v>
       </c>
       <c r="B853" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>598</v>
@@ -11409,10 +11409,10 @@
         <v>597</v>
       </c>
       <c r="B854" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11431,10 +11431,10 @@
         <v>597</v>
       </c>
       <c r="B856" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>457</v>
+        <v>598</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11442,7 +11442,7 @@
         <v>597</v>
       </c>
       <c r="B857" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>599</v>
@@ -11453,10 +11453,10 @@
         <v>597</v>
       </c>
       <c r="B858" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>599</v>
+        <v>457</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11464,7 +11464,7 @@
         <v>600</v>
       </c>
       <c r="B859" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C859" s="1" t="s">
         <v>601</v>
@@ -11475,10 +11475,10 @@
         <v>600</v>
       </c>
       <c r="B860" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>118</v>
+        <v>602</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11486,10 +11486,10 @@
         <v>600</v>
       </c>
       <c r="B861" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>602</v>
+        <v>118</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11497,7 +11497,7 @@
         <v>600</v>
       </c>
       <c r="B862" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>603</v>
@@ -11508,7 +11508,7 @@
         <v>604</v>
       </c>
       <c r="B863" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>112</v>
@@ -11519,10 +11519,10 @@
         <v>604</v>
       </c>
       <c r="B864" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11530,10 +11530,10 @@
         <v>604</v>
       </c>
       <c r="B865" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11541,10 +11541,10 @@
         <v>605</v>
       </c>
       <c r="B866" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>178</v>
+        <v>606</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11552,10 +11552,10 @@
         <v>605</v>
       </c>
       <c r="B867" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>606</v>
+        <v>178</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11563,10 +11563,10 @@
         <v>607</v>
       </c>
       <c r="B868" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>331</v>
+        <v>608</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11574,10 +11574,10 @@
         <v>607</v>
       </c>
       <c r="B869" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11588,7 +11588,7 @@
         <v>3</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11596,10 +11596,10 @@
         <v>607</v>
       </c>
       <c r="B871" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>609</v>
+        <v>331</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11621,7 +11621,7 @@
         <v>2</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11651,10 +11651,10 @@
         <v>613</v>
       </c>
       <c r="B876" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11662,10 +11662,10 @@
         <v>613</v>
       </c>
       <c r="B877" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11673,10 +11673,10 @@
         <v>613</v>
       </c>
       <c r="B878" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C878" s="1" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11684,10 +11684,10 @@
         <v>614</v>
       </c>
       <c r="B879" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>13</v>
+        <v>615</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11695,10 +11695,10 @@
         <v>614</v>
       </c>
       <c r="B880" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11706,10 +11706,10 @@
         <v>614</v>
       </c>
       <c r="B881" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>615</v>
+        <v>16</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11728,10 +11728,10 @@
         <v>614</v>
       </c>
       <c r="B883" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11739,10 +11739,10 @@
         <v>614</v>
       </c>
       <c r="B884" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11750,7 +11750,7 @@
         <v>616</v>
       </c>
       <c r="B885" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>617</v>
@@ -11761,7 +11761,7 @@
         <v>616</v>
       </c>
       <c r="B886" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>618</v>
@@ -11772,10 +11772,10 @@
         <v>616</v>
       </c>
       <c r="B887" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11783,10 +11783,10 @@
         <v>616</v>
       </c>
       <c r="B888" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11808,7 +11808,7 @@
         <v>2</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11827,10 +11827,10 @@
         <v>621</v>
       </c>
       <c r="B892" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11838,10 +11838,10 @@
         <v>621</v>
       </c>
       <c r="B893" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11852,7 +11852,7 @@
         <v>3</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
